--- a/data/trans_bre/P36BPD07_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P36BPD07_R-Estudios-trans_bre.xlsx
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>2.770898859952409</v>
+        <v>-2.770898859952412</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>3.009393797065463</v>
+        <v>-3.00939379706546</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.03032605248234548</v>
+        <v>-0.3210866375932592</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.04049500755294436</v>
+        <v>-0.1171662429308754</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.05473444769349159</v>
+        <v>-5.347551236962198</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.441164726258938</v>
+        <v>-7.259827666511533</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.0006463635792922065</v>
+        <v>-0.5269973769483368</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.01904697522320152</v>
+        <v>-0.2579941037872395</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.347551236962189</v>
+        <v>0.05473444769349493</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.259827666511534</v>
+        <v>1.441164726258967</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.05970454204425487</v>
+        <v>0.007047332457557884</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.1003010831375692</v>
+        <v>0.06221940315473733</v>
       </c>
     </row>
     <row r="7">
@@ -653,16 +653,16 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>1.598446878177273</v>
+        <v>-1.598446878177279</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>5.881149095227611</v>
+        <v>-5.881149095227606</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.01974377455506462</v>
+        <v>-0.08395000753914092</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.08705650995116769</v>
+        <v>-0.1812681785602889</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.8318002831888329</v>
+        <v>-3.971232692311316</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.834549107739872</v>
+        <v>-8.748674424132643</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.01017297075410971</v>
+        <v>-0.1955485051314982</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.04129730080998559</v>
+        <v>-0.2554507428030201</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.971232692311318</v>
+        <v>0.8318002831888329</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.748674424132625</v>
+        <v>-2.834549107739843</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.04987343336180444</v>
+        <v>0.04538020063674014</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1328843462450725</v>
+        <v>-0.09242868359986134</v>
       </c>
     </row>
     <row r="10">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.7499639505955891</v>
+        <v>-0.7499639505955863</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>2.255049059532932</v>
+        <v>-2.255049059532935</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.008542924646388467</v>
+        <v>-0.06141068504809163</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.02775988360740626</v>
+        <v>-0.1201673578409227</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.174337635492014</v>
+        <v>-4.801201709223005</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.555493988342883</v>
+        <v>-6.437171927678222</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.03571511167580503</v>
+        <v>-0.329586691602143</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.01877430244929879</v>
+        <v>-0.3037573072791357</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.801201709223005</v>
+        <v>3.174337635492016</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.437171927678227</v>
+        <v>1.555493988342863</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.05583130117442732</v>
+        <v>0.3120116959786506</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.08134753355088725</v>
+        <v>0.09570288996743621</v>
       </c>
     </row>
     <row r="13">
@@ -781,16 +781,16 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>2.362804742200852</v>
+        <v>-2.36280474220085</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>4.84292573144841</v>
+        <v>-4.842925731448447</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.02800220585507895</v>
+        <v>-0.1512605128480029</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.06779719733151307</v>
+        <v>-0.1695259233497148</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7824024201116759</v>
+        <v>-4.082089155896438</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.729520400824514</v>
+        <v>-7.043207725164397</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.009214899069687083</v>
+        <v>-0.2476823534468921</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.03758981983113945</v>
+        <v>-0.2337676830222144</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.082089155896437</v>
+        <v>-0.7824024201116716</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.043207725164397</v>
+        <v>-2.729520400824514</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.04883919293876532</v>
+        <v>-0.05428270619313419</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1006758264736927</v>
+        <v>-0.09982680664816576</v>
       </c>
     </row>
     <row r="16">

--- a/data/trans_bre/P36BPD07_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P36BPD07_R-Estudios-trans_bre.xlsx
@@ -528,7 +528,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consume menos de una bebida azucarada por día</t>
+          <t>Población que consume al menos una bebida azucarada por día</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P36BPD07_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P36BPD07_R-Estudios-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.347551236962198</v>
+        <v>-5.437695308994568</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.259827666511533</v>
+        <v>-7.158949550216853</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.5269973769483368</v>
+        <v>-0.5277544752467562</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2579941037872395</v>
+        <v>-0.2506335262344837</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05473444769349493</v>
+        <v>-0.2707872455670388</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.441164726258967</v>
+        <v>1.25739125402641</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.007047332457557884</v>
+        <v>-0.03257153139675345</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.06221940315473733</v>
+        <v>0.05426025687637192</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>-1.598446878177279</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>-5.881149095227606</v>
+        <v>-5.881149095227611</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.08395000753914092</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-0.1812681785602889</v>
+        <v>-0.181268178560289</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.971232692311316</v>
+        <v>-4.021999905428271</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-8.748674424132643</v>
+        <v>-8.928171147250453</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1955485051314982</v>
+        <v>-0.2011957756446492</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2554507428030201</v>
+        <v>-0.2627241405314866</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8318002831888329</v>
+        <v>0.7911188461115471</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-2.834549107739843</v>
+        <v>-2.994167808339458</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.04538020063674014</v>
+        <v>0.04249938220643668</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.09242868359986134</v>
+        <v>-0.09941653761972145</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>-0.7499639505955863</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-2.255049059532935</v>
+        <v>-2.255049059532932</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>-0.06141068504809163</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>-0.1201673578409227</v>
+        <v>-0.1201673578409226</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.801201709223005</v>
+        <v>-4.754008329617297</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.437171927678222</v>
+        <v>-6.392353625806738</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.329586691602143</v>
+        <v>-0.3396974183015678</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.3037573072791357</v>
+        <v>-0.3075027814332537</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.174337635492016</v>
+        <v>2.995652551836337</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.555493988342863</v>
+        <v>2.014166741748038</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.3120116959786506</v>
+        <v>0.2941536267704934</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.09570288996743621</v>
+        <v>0.1187204297549292</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>-2.36280474220085</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-4.842925731448447</v>
+        <v>-4.842925731448442</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.1512605128480029</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.1695259233497148</v>
+        <v>-0.1695259233497146</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.082089155896438</v>
+        <v>-4.01575088980373</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-7.043207725164397</v>
+        <v>-7.059457262251508</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2476823534468921</v>
+        <v>-0.2463048829959227</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2337676830222144</v>
+        <v>-0.2352349544161171</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-0.7824024201116716</v>
+        <v>-0.7258575405809078</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-2.729520400824514</v>
+        <v>-2.711959115602106</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.05428270619313419</v>
+        <v>-0.04880753001396841</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.09982680664816576</v>
+        <v>-0.09947556533724609</v>
       </c>
     </row>
     <row r="16">
